--- a/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\Praxisprojekt\02. Unterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="141"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Use Cases" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="190">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -300,6 +301,297 @@
   </si>
   <si>
     <t>Mängeldaten müssen in Listenform angezeigt und ausgedruckt werden können.</t>
+  </si>
+  <si>
+    <t>Req</t>
+  </si>
+  <si>
+    <t>UseC001</t>
+  </si>
+  <si>
+    <t>UseC002</t>
+  </si>
+  <si>
+    <t>UseC003</t>
+  </si>
+  <si>
+    <t>UseC004</t>
+  </si>
+  <si>
+    <t>UseC005</t>
+  </si>
+  <si>
+    <t>UseC006</t>
+  </si>
+  <si>
+    <t>UseC007</t>
+  </si>
+  <si>
+    <t>UseC008</t>
+  </si>
+  <si>
+    <t>UseC009</t>
+  </si>
+  <si>
+    <t>UseC010</t>
+  </si>
+  <si>
+    <t>UseC011</t>
+  </si>
+  <si>
+    <t>UseC012</t>
+  </si>
+  <si>
+    <t>UseC013</t>
+  </si>
+  <si>
+    <t>UseC014</t>
+  </si>
+  <si>
+    <t>UseC015</t>
+  </si>
+  <si>
+    <t>UseC016</t>
+  </si>
+  <si>
+    <t>UseC017</t>
+  </si>
+  <si>
+    <t>UseC018</t>
+  </si>
+  <si>
+    <t>UseC019</t>
+  </si>
+  <si>
+    <t>UseC020</t>
+  </si>
+  <si>
+    <t>UseC021</t>
+  </si>
+  <si>
+    <t>UseC022</t>
+  </si>
+  <si>
+    <t>UseC023</t>
+  </si>
+  <si>
+    <t>UseC024</t>
+  </si>
+  <si>
+    <t>UseC025</t>
+  </si>
+  <si>
+    <t>UseC026</t>
+  </si>
+  <si>
+    <t>UseC027</t>
+  </si>
+  <si>
+    <t>UseC028</t>
+  </si>
+  <si>
+    <t>UseC029</t>
+  </si>
+  <si>
+    <t>UseC030</t>
+  </si>
+  <si>
+    <t>UseC031</t>
+  </si>
+  <si>
+    <t>UseC032</t>
+  </si>
+  <si>
+    <t>UseC033</t>
+  </si>
+  <si>
+    <t>UseC034</t>
+  </si>
+  <si>
+    <t>UseC035</t>
+  </si>
+  <si>
+    <t>UseC036</t>
+  </si>
+  <si>
+    <t>UseC037</t>
+  </si>
+  <si>
+    <t>UseC038</t>
+  </si>
+  <si>
+    <t>UseC039</t>
+  </si>
+  <si>
+    <t>UseC040</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Projekt Mängel-Manager - Use Cases</t>
+  </si>
+  <si>
+    <t>SU-Admin erfasst SU-Ansprechperson in SU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Admin, SU-Ansprechperson</t>
+  </si>
+  <si>
+    <t>SU-Admin ändert SU-Ansprechperson in SU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Admin entfernt SU-Ansprechperson in SU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Admin teilt SU-Ansprechperson einem Projekt zu in SU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson kann zugeteilte Mängel in SU-UI einsehen</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson</t>
+  </si>
+  <si>
+    <t>SU-Admin kann Stammdaten modifizieren in SU-Backoffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU-Admin </t>
+  </si>
+  <si>
+    <t>SU-Admin</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson kann Meldung zu Mangel verfassen in SU-UI</t>
+  </si>
+  <si>
+    <t>SU-Ansprechpeson kann Mangel-Kenntnisnahme bestätigen SU-UI</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson kann Mangel als erledigt markieren in SU-UI</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson, GU-Bauleiter</t>
+  </si>
+  <si>
+    <t>SU-Admin kann Stammdaten des SU einsehen in SU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Ansprechperson kann zugeteilte Projekte einsehen in SU-UI</t>
+  </si>
+  <si>
+    <t>Daten können in UI gefiltert werden</t>
+  </si>
+  <si>
+    <t>Mängelliste aus UI ausdrucken</t>
+  </si>
+  <si>
+    <t>SU Kann Software Online downloaden</t>
+  </si>
+  <si>
+    <t>Req19</t>
+  </si>
+  <si>
+    <t>GU-Admin erfasst Bauherr in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin entfernen Bauherr in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin ändern Bauherr in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin</t>
+  </si>
+  <si>
+    <t>GU-Admin erfasst Bauleiter in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin entfernen Bauleiter in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin ändert Bauleiter in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin erfasst SU in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin entfernt SU in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin ändert SU in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin resettet Passwort für GU-User und SU-Admin</t>
+  </si>
+  <si>
+    <t>GU-Admin erfasst Projekt in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Admin entfernt Projekt in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>SU-Admin kann alle SU-Projekte einsehen</t>
+  </si>
+  <si>
+    <t>Gu-Admin, GU-Bauleiter</t>
+  </si>
+  <si>
+    <t>GU-Admin, SU</t>
+  </si>
+  <si>
+    <t>GU-Admin, SU-Admin, GU-Bauleiter</t>
+  </si>
+  <si>
+    <t>GU-Admin, GU-Bauleiter</t>
+  </si>
+  <si>
+    <t>GU-Admin ändert ProjektInformationen in GU-Backoffice</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter sieht alle seine Projekte ein in GU-UI</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter erfasst Mangel in GU-UI</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter kann Meldungen einsehen in GU-UI</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter kann Meldungen erfassen in GU-UI</t>
+  </si>
+  <si>
+    <t>UseC041</t>
+  </si>
+  <si>
+    <t>UseC042</t>
+  </si>
+  <si>
+    <t>UseC043</t>
+  </si>
+  <si>
+    <t>UseC044</t>
+  </si>
+  <si>
+    <t>UseC045</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter kann Mangelbehebung bestätigen</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter</t>
+  </si>
+  <si>
+    <t>GU-Bauleiter, SU-Ansprechperson</t>
+  </si>
+  <si>
+    <t>GU-Admin teilt Bauleiter einem Projekt zu</t>
+  </si>
+  <si>
+    <t>User logt sich auf UI ein</t>
   </si>
 </sst>
 </file>
@@ -333,7 +625,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -384,11 +676,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -398,6 +701,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -789,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1293,19 +1604,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1325,4 +2223,22 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -78,12 +78,6 @@
     <t>Projekt Mängel-Manager - Requirements</t>
   </si>
   <si>
-    <t>Datenverwaltung für Subunternhmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenverwaltung für Bauherren </t>
-  </si>
-  <si>
     <t>Datenverwaltung für alle Bauprojekte des Unternehmens</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Bauherr des Projekts ist ersichtlich</t>
   </si>
   <si>
-    <t>Alle invovierten Subunternehmen sind erichtlich</t>
-  </si>
-  <si>
     <t>Die Ansprechpersonen der Subunternehmen sind Zeitlich aufgeführt</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>Mängelbehebung muss durch SU explizit angegeben werden.</t>
   </si>
   <si>
-    <t>GU Bauleiter kontrolliert Mängel und bestätigt wenn gut.</t>
-  </si>
-  <si>
     <t>Sollten die Mängel nicht behoben sein kann der Bauleiter die Mängel erneut dem SU schicken</t>
   </si>
   <si>
@@ -592,13 +580,34 @@
   </si>
   <si>
     <t>User logt sich auf UI ein</t>
+  </si>
+  <si>
+    <t>Datenverwaltung Back-Office für Subunternhmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenverwaltung des Unternehmens </t>
+  </si>
+  <si>
+    <t>Alle involierten Subunternehmen sind ersichtlich</t>
+  </si>
+  <si>
+    <t>GU Bauleiter kontrolliert Mängel und bestätigt falls Behebung in Ordnung</t>
+  </si>
+  <si>
+    <t>Benutzerverwaltung durch GU-BO</t>
+  </si>
+  <si>
+    <t>Adminuser für GU-BO wird initial erstellt</t>
+  </si>
+  <si>
+    <t>Adminuser für SU-BO wird bei Erfassung von SU im GU-BO erstellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -616,13 +625,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -688,10 +721,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,16 +736,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,18 +1144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="95.453125" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,8 +1164,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,457 +1179,463 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
+      <c r="B5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
+      <c r="B8" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+      <c r="B9" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
+      <c r="B10" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
+      <c r="B12" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
+      <c r="B13" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>54</v>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>56</v>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>66</v>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>84</v>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>85</v>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>88</v>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>89</v>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>90</v>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>91</v>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>92</v>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="3"/>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="3"/>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1606,597 +1656,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="7"/>
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>146</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>170</v>
+        <v>102</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2263,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2231,7 +2281,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_Requirements_MangelManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -294,21 +294,9 @@
     <t>Req</t>
   </si>
   <si>
-    <t>UseC001</t>
-  </si>
-  <si>
-    <t>UseC002</t>
-  </si>
-  <si>
     <t>UseC003</t>
   </si>
   <si>
-    <t>UseC004</t>
-  </si>
-  <si>
-    <t>UseC005</t>
-  </si>
-  <si>
     <t>UseC006</t>
   </si>
   <si>
@@ -318,102 +306,6 @@
     <t>UseC008</t>
   </si>
   <si>
-    <t>UseC009</t>
-  </si>
-  <si>
-    <t>UseC010</t>
-  </si>
-  <si>
-    <t>UseC011</t>
-  </si>
-  <si>
-    <t>UseC012</t>
-  </si>
-  <si>
-    <t>UseC013</t>
-  </si>
-  <si>
-    <t>UseC014</t>
-  </si>
-  <si>
-    <t>UseC015</t>
-  </si>
-  <si>
-    <t>UseC016</t>
-  </si>
-  <si>
-    <t>UseC017</t>
-  </si>
-  <si>
-    <t>UseC018</t>
-  </si>
-  <si>
-    <t>UseC019</t>
-  </si>
-  <si>
-    <t>UseC020</t>
-  </si>
-  <si>
-    <t>UseC021</t>
-  </si>
-  <si>
-    <t>UseC022</t>
-  </si>
-  <si>
-    <t>UseC023</t>
-  </si>
-  <si>
-    <t>UseC024</t>
-  </si>
-  <si>
-    <t>UseC025</t>
-  </si>
-  <si>
-    <t>UseC026</t>
-  </si>
-  <si>
-    <t>UseC027</t>
-  </si>
-  <si>
-    <t>UseC028</t>
-  </si>
-  <si>
-    <t>UseC029</t>
-  </si>
-  <si>
-    <t>UseC030</t>
-  </si>
-  <si>
-    <t>UseC031</t>
-  </si>
-  <si>
-    <t>UseC032</t>
-  </si>
-  <si>
-    <t>UseC033</t>
-  </si>
-  <si>
-    <t>UseC034</t>
-  </si>
-  <si>
-    <t>UseC035</t>
-  </si>
-  <si>
-    <t>UseC036</t>
-  </si>
-  <si>
-    <t>UseC037</t>
-  </si>
-  <si>
-    <t>UseC038</t>
-  </si>
-  <si>
-    <t>UseC039</t>
-  </si>
-  <si>
-    <t>UseC040</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -552,21 +444,6 @@
     <t>GU-Bauleiter kann Meldungen erfassen in GU-UI</t>
   </si>
   <si>
-    <t>UseC041</t>
-  </si>
-  <si>
-    <t>UseC042</t>
-  </si>
-  <si>
-    <t>UseC043</t>
-  </si>
-  <si>
-    <t>UseC044</t>
-  </si>
-  <si>
-    <t>UseC045</t>
-  </si>
-  <si>
     <t>GU-Bauleiter kann Mangelbehebung bestätigen</t>
   </si>
   <si>
@@ -601,6 +478,21 @@
   </si>
   <si>
     <t>Adminuser für SU-BO wird bei Erfassung von SU im GU-BO erstellt</t>
+  </si>
+  <si>
+    <t>Su-Admin</t>
+  </si>
+  <si>
+    <t>UseC001 SU-Admin Datenverwaltung</t>
+  </si>
+  <si>
+    <t>UseC002 SU-Anspr. Datenverwaltung</t>
+  </si>
+  <si>
+    <t>UseC004 GU-Admin Datenverwaltung</t>
+  </si>
+  <si>
+    <t>UseC005 GU-Bauleiter Datenverwaltung</t>
   </si>
 </sst>
 </file>
@@ -640,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,8 +549,50 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -720,30 +654,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -751,6 +701,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1144,18 +1121,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="95.42578125" customWidth="1"/>
+    <col min="2" max="2" width="95.453125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,8 +1141,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1179,117 +1156,117 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>186</v>
+      <c r="B4" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>187</v>
+      <c r="B5" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>188</v>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1276,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1309,47 +1286,47 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1359,17 +1336,17 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1356,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1389,227 +1366,227 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>189</v>
+      <c r="B39" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>190</v>
+      <c r="B44" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>191</v>
+      <c r="B45" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>192</v>
+      <c r="B46" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
@@ -1617,7 +1594,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
@@ -1625,7 +1602,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>78</v>
       </c>
@@ -1633,7 +1610,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>79</v>
       </c>
@@ -1656,593 +1633,520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="10"/>
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>133</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>136</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>137</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>141</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>142</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>166</v>
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>108</v>
-      </c>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>154</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>155</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>157</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>158</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>159</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>160</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>161</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>162</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>163</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>171</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>172</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>129</v>
-      </c>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>176</v>
-      </c>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>177</v>
-      </c>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -2250,8 +2154,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="A38:A42"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2263,7 +2171,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2281,7 +2189,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
